--- a/资料/合同系统试用信息反馈-2015-9-7.xlsx
+++ b/资料/合同系统试用信息反馈-2015-9-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="22965" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22965" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="系统信息反馈9-7" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>供应商的确定方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无第三方，可选择不填写，无需修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有验收日期可不填写</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +748,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
@@ -1098,17 +1113,18 @@
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63" customHeight="1">
+    <row r="4" spans="1:5" ht="63" customHeight="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1149,8 +1165,11 @@
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="46.5" customHeight="1">
+      <c r="E4" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" customHeight="1">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1163,8 +1182,11 @@
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" customHeight="1">
+      <c r="E5" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.5" customHeight="1">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1177,8 +1199,11 @@
       <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" customHeight="1">
+      <c r="E6" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" customHeight="1">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1191,8 +1216,11 @@
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" customHeight="1">
+      <c r="E7" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34.5" customHeight="1">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1206,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1">
+    <row r="9" spans="1:5" ht="21.75" customHeight="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1219,8 +1247,11 @@
       <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="56.25" customHeight="1">
+      <c r="E9" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="56.25" customHeight="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1233,8 +1264,11 @@
       <c r="D10" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1">
+      <c r="E10" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1247,8 +1281,11 @@
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="E11" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -1262,19 +1299,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="22" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="D13" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="14" spans="1:5" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.5" customHeight="1">
+    <row r="16" spans="1:5" ht="34.5" customHeight="1">
       <c r="A16" s="37">
         <v>1</v>
       </c>
@@ -1468,6 +1505,9 @@
       <c r="D29" s="36" t="s">
         <v>57</v>
       </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1">
       <c r="A30" s="31">
@@ -1497,6 +1537,9 @@
       <c r="D31" s="35" t="s">
         <v>71</v>
       </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="20.25" customHeight="1">
       <c r="A32" s="31">
@@ -1511,6 +1554,9 @@
       <c r="D32" s="15" t="s">
         <v>73</v>
       </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="20.25" customHeight="1">
       <c r="A33" s="31">
@@ -1522,6 +1568,9 @@
       <c r="C33" s="33"/>
       <c r="D33" s="15" t="s">
         <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1">

--- a/资料/合同系统试用信息反馈-2015-9-7.xlsx
+++ b/资料/合同系统试用信息反馈-2015-9-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22965" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="22965" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="系统信息反馈9-7" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>如果没有验收日期可不填写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>因下拉列列表无法实现多选，现已选择多选框勾选形式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有合同到期日期可不填写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果合同生效日期可不填写</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1103,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
@@ -1433,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.25" customHeight="1">
+    <row r="25" spans="1:5" ht="27">
       <c r="A25" s="31">
         <v>1</v>
       </c>
@@ -1445,6 +1460,9 @@
       </c>
       <c r="D25" s="40" t="s">
         <v>63</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1">
@@ -1460,6 +1478,9 @@
       <c r="D26" s="35" t="s">
         <v>53</v>
       </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1">
       <c r="A27" s="31">
@@ -1473,6 +1494,9 @@
       </c>
       <c r="D27" s="35" t="s">
         <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1">
